--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E8" s="3">
         <v>46700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>45800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>40200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>36000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1025,7 @@
         <v>-300</v>
       </c>
       <c r="F15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G15" s="3">
         <v>-400</v>
@@ -1012,28 +1034,31 @@
         <v>-400</v>
       </c>
       <c r="I15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J15" s="3">
         <v>-200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4300</v>
       </c>
       <c r="K17" s="3">
         <v>4300</v>
       </c>
       <c r="L17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E18" s="3">
         <v>42300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>30800</v>
       </c>
       <c r="L18" s="3">
         <v>30800</v>
       </c>
       <c r="M18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="N18" s="3">
         <v>25700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-27500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>16500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>5400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E23" s="3">
         <v>18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1528,24 +1588,24 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-13900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E32" s="3">
         <v>24200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>27500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,35 +2008,38 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E42" s="3">
         <v>64200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>125500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>141400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>64700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,35 +2272,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E48" s="3">
         <v>68800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,32 +2316,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E49" s="3">
         <v>20000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E52" s="3">
         <v>32500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5325300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5029800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4937800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4914500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4685500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4630400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4607900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4154000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2506,18 +2636,18 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,23 +2704,26 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E59" s="3">
         <v>64500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,8 +2733,8 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4834900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4543600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4463000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4459100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4246300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4209500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4201800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3807600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E72" s="3">
         <v>171700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>160400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>151100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>142200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>128200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>118800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>107200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E76" s="3">
         <v>486200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>474800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>455300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>439200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>420900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>406200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>346500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>1500</v>
       </c>
       <c r="H83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>41800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-69500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-88900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>75800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-178600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>85700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3924,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1900</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>160800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>41800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>50400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>101600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-124300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>-26300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>51300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>108500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-62900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E8" s="3">
         <v>47000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>46700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>46500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>45800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>40200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1051,7 @@
         <v>-300</v>
       </c>
       <c r="G15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H15" s="3">
         <v>-400</v>
@@ -1037,28 +1060,31 @@
         <v>-400</v>
       </c>
       <c r="J15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4300</v>
       </c>
       <c r="L17" s="3">
         <v>4300</v>
       </c>
       <c r="M17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E18" s="3">
         <v>42200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>30800</v>
       </c>
       <c r="M18" s="3">
         <v>30800</v>
       </c>
       <c r="N18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="O18" s="3">
         <v>25700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>18100</v>
       </c>
       <c r="F21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G21" s="3">
         <v>16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>5400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>16500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E26" s="3">
         <v>12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,24 +1652,24 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-13900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E32" s="3">
         <v>25800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,38 +2098,41 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E42" s="3">
         <v>114900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>64200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>98300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>125500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>141400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>64700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E48" s="3">
         <v>65100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>71600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E49" s="3">
         <v>19700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E52" s="3">
         <v>31400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5752000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5325300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5029800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4937800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4914500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4685500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4630400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4607900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4154000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2749,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>60800</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2639,18 +2770,18 @@
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,26 +2841,29 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>62400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2873,8 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5278800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4834900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4543600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4463000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4459100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4246300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4209500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4201800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3807600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>188200</v>
+      </c>
+      <c r="E72" s="3">
         <v>181100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>171700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>160400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>151100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>142200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>128200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>118800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>473100</v>
+      </c>
+      <c r="E76" s="3">
         <v>490400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>486200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>474800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>455300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>439200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>420900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>406200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>346500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="E83" s="3">
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G83" s="3">
         <v>1400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1500</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
       </c>
       <c r="I83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3">
+        <v>30700</v>
       </c>
       <c r="F89" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G89" s="3">
         <v>41800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4174,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3972,34 +4193,37 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>-240500</v>
       </c>
       <c r="F94" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-69500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-88900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>75800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>85700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F96" s="3">
         <v>-1900</v>
@@ -4166,7 +4400,7 @@
         <v>-1900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>261100</v>
       </c>
       <c r="F100" s="3">
+        <v>80900</v>
+      </c>
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>160800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>41800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>50400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-124300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3">
+        <v>51300</v>
       </c>
       <c r="F102" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-26300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>108500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-62900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,139 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F8" s="3">
         <v>48600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>47000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>46700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>46500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>45800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>44500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>43100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>40200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>36200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>35100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>36000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>34400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>33500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,37 +1100,43 @@
         <v>-300</v>
       </c>
       <c r="H15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J15" s="3">
         <v>-400</v>
       </c>
       <c r="K15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M15" s="3">
         <v>-200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>39400</v>
+      </c>
+      <c r="F18" s="3">
         <v>39100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>42200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>42300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>39700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>39400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>39300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>39500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>31900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>30800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>30800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>25700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>27300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1278,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-26100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-25800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-24200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-24600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-24100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-27500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-26500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-24000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-21700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-25400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-23600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-22800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>19900</v>
       </c>
       <c r="E21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G21" s="3">
         <v>18100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>5400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F23" s="3">
         <v>12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-4900</v>
       </c>
       <c r="N24" s="3">
         <v>2500</v>
       </c>
       <c r="O24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F26" s="3">
         <v>9500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F27" s="3">
         <v>9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,35 +1777,41 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-13900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F32" s="3">
         <v>26100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>25800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>24200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>24600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>24100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>27500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>26500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>24000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>21700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>25400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>23600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>22800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>23000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F33" s="3">
         <v>9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F35" s="3">
         <v>9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2226,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F41" s="3">
         <v>95800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>7000</v>
       </c>
       <c r="G41" s="3">
         <v>7600</v>
       </c>
       <c r="H41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,44 +2275,50 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>736300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>578800</v>
+      </c>
+      <c r="F42" s="3">
         <v>166900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>114900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>64200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>98300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>125500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>70300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>83500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>141400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>64700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2328,14 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2434,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2487,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,44 +2593,50 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>58900</v>
+      </c>
+      <c r="F48" s="3">
         <v>61900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>65100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>68800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>71600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>74000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>21700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>22600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>23400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>21600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2646,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F49" s="3">
         <v>19300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>20000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>20700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>21400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>23000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2805,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F52" s="3">
         <v>37400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>31400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>32500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>33300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>35000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>39700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>37700</v>
       </c>
       <c r="K52" s="3">
         <v>39700</v>
       </c>
       <c r="L52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="M52" s="3">
+        <v>39700</v>
+      </c>
+      <c r="N52" s="3">
         <v>38400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2911,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6618400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6470300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5752000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5325300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5029800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4937800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4914500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4685500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4630400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4607900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4154000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +3010,46 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60800</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +3059,14 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,43 +3112,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>54900</v>
       </c>
       <c r="E59" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>60800</v>
+      </c>
+      <c r="G59" s="3">
         <v>62400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>64500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>66600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>68400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2891,8 +3165,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3218,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3483,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6096100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5966800</v>
+      </c>
+      <c r="F66" s="3">
         <v>5278800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4834900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4543600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4463000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4459100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4246300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4209500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4201800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3807600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3769,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>196000</v>
+      </c>
+      <c r="F72" s="3">
         <v>188200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>181100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>171700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>160400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>151100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>142200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>128200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>118800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>107200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3981,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>522400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>503600</v>
+      </c>
+      <c r="F76" s="3">
         <v>473100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>490400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>486200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>474800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>455300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>439200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>420900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>406200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>346500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F81" s="3">
         <v>9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>3200</v>
       </c>
       <c r="E83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1400</v>
       </c>
       <c r="H83" s="3">
         <v>1500</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>1600</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G89" s="3">
         <v>30700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>34800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>14100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>38200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,19 +4615,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4196,34 +4638,40 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>5300</v>
       </c>
       <c r="E94" s="3">
+        <v>-466100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-228400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-240500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-106300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-69500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-129600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-66600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-88900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>75800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-178600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-19500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>85700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,31 +4848,33 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1900</v>
       </c>
       <c r="H96" s="3">
         <v>-1900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>148200</v>
       </c>
       <c r="E100" s="3">
+        <v>791200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>351000</v>
+      </c>
+      <c r="G100" s="3">
         <v>261100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>80900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>160800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>41800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>50400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>101600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-124300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>155100</v>
       </c>
       <c r="E102" s="3">
+        <v>325200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>140200</v>
+      </c>
+      <c r="G102" s="3">
         <v>51300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-34600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-26300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>51300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-61700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>108500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-62900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E8" s="3">
         <v>47300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>45800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>-300</v>
       </c>
       <c r="J15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K15" s="3">
         <v>-400</v>
@@ -1115,28 +1137,31 @@
         <v>-400</v>
       </c>
       <c r="M15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N15" s="3">
         <v>-200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4300</v>
       </c>
       <c r="O17" s="3">
         <v>4300</v>
       </c>
       <c r="P17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E18" s="3">
         <v>42200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>30800</v>
       </c>
       <c r="P18" s="3">
         <v>30800</v>
       </c>
       <c r="Q18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="R18" s="3">
         <v>25700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-25400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-22800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>19900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>5400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E23" s="3">
         <v>16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3400</v>
       </c>
       <c r="F24" s="3">
         <v>3400</v>
       </c>
       <c r="G24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E26" s="3">
         <v>12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,24 +1843,24 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-13900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E32" s="3">
         <v>25400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>22800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E42" s="3">
         <v>736300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>578800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>166900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>64200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>98300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>125500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>141400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E48" s="3">
         <v>50200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>71600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E52" s="3">
         <v>62900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>31400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>35000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5978600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6618400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6470300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5752000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5325300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5029800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4937800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4914500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4685500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4630400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4607900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4154000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3038,21 +3168,21 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,35 +3251,38 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E59" s="3">
         <v>54900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>68400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,8 +3292,8 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5442900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6096100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5966800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5278800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4834900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4543600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4463000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4459100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4246300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4209500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4201800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3807600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>217200</v>
+      </c>
+      <c r="E72" s="3">
         <v>206000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>196000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>188200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>181100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>171700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>160400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>151100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>142200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>128200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>118800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>107200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>535700</v>
+      </c>
+      <c r="E76" s="3">
         <v>522400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>503600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>473100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>490400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>486200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>474800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>455300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>439200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>420900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>406200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>346500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1500</v>
       </c>
       <c r="K83" s="3">
         <v>1500</v>
       </c>
       <c r="L83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,22 +4836,23 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4644,34 +4864,37 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-466100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-240500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-106300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-66600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-88900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>75800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-178600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>85700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,13 +5082,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-2500</v>
@@ -4865,10 +5098,10 @@
         <v>-2500</v>
       </c>
       <c r="G96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1900</v>
       </c>
       <c r="I96" s="3">
         <v>-1900</v>
@@ -4877,7 +5110,7 @@
         <v>-1900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>148200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>791200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>351000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>261100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>80900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>160800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>41800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>101600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-124300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>155100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>325200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>140200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>51300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-61700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>108500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-62900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E8" s="3">
         <v>47500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>47300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>46700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>-300</v>
       </c>
       <c r="K15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L15" s="3">
         <v>-400</v>
@@ -1140,28 +1163,31 @@
         <v>-400</v>
       </c>
       <c r="N15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O15" s="3">
         <v>-200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4300</v>
       </c>
       <c r="P17" s="3">
         <v>4300</v>
       </c>
       <c r="Q17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E18" s="3">
         <v>39000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>30800</v>
       </c>
       <c r="Q18" s="3">
         <v>30800</v>
       </c>
       <c r="R18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="S18" s="3">
         <v>25700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-25400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-25400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-23600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-22800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-23000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>17500</v>
       </c>
       <c r="E21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F21" s="3">
         <v>19900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>5400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E23" s="3">
         <v>18400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3400</v>
       </c>
       <c r="G24" s="3">
         <v>3400</v>
       </c>
       <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E26" s="3">
         <v>13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E27" s="3">
         <v>13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,53 +1875,56 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E32" s="3">
         <v>20600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>25400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>25400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>23600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>22800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>23000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2400,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>95800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,50 +2457,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>497500</v>
+      </c>
+      <c r="E42" s="3">
         <v>31000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>736300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>578800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>166900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>114900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>64200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>98300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>125500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>141400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,31 +2752,34 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>11700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,50 +2811,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E48" s="3">
         <v>49100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>71600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,47 +2870,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E49" s="3">
         <v>18300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3047,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35400</v>
+        <v>42700</v>
       </c>
       <c r="E52" s="3">
+        <v>47300</v>
+      </c>
+      <c r="F52" s="3">
         <v>62900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3165,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6385200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5978600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6618400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6470300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5752000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5325300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5029800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4937800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4914500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4685500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4630400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4607900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4154000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3171,21 +3302,21 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,38 +3388,41 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E59" s="3">
         <v>53200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3432,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3801,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5845100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5442900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6096100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5966800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5278800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4834900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4543600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4463000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4459100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4246300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4209500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4201800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3807600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4119,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E72" s="3">
         <v>217200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>206000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>196000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>188200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>181100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>171700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>160400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>151100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>142200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>128200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>118800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>107200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4355,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>540100</v>
+      </c>
+      <c r="E76" s="3">
         <v>535700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>522400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>503600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>473100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>490400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>486200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>474800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>455300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>439200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>420900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>406200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>346500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1500</v>
       </c>
       <c r="L83" s="3">
         <v>1500</v>
       </c>
       <c r="M83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>12100</v>
       </c>
       <c r="E89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>34800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38200</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,25 +5057,26 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -4867,34 +5088,37 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>76600</v>
       </c>
       <c r="E94" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="F94" s="3">
         <v>5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-466100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-240500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-106300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-66600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-88900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>75800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-178600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>85700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5316,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
         <v>-2500</v>
@@ -5101,10 +5335,10 @@
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1900</v>
       </c>
       <c r="J96" s="3">
         <v>-1900</v>
@@ -5113,7 +5347,7 @@
         <v>-1900</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>377400</v>
       </c>
       <c r="E100" s="3">
+        <v>-684800</v>
+      </c>
+      <c r="F100" s="3">
         <v>148200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>791200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>351000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>261100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>80900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>160800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>101600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-124300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>466200</v>
       </c>
       <c r="E102" s="3">
+        <v>-704300</v>
+      </c>
+      <c r="F102" s="3">
         <v>155100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>325200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>140200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-61700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>108500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-62900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,58 +763,61 @@
         <v>43400</v>
       </c>
       <c r="E8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F8" s="3">
         <v>47500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>47300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>46700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,7 +1180,7 @@
         <v>-300</v>
       </c>
       <c r="L15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M15" s="3">
         <v>-400</v>
@@ -1166,28 +1189,31 @@
         <v>-400</v>
       </c>
       <c r="O15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P15" s="3">
         <v>-200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4300</v>
       </c>
       <c r="Q17" s="3">
         <v>4300</v>
       </c>
       <c r="R17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E18" s="3">
         <v>45100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>30800</v>
       </c>
       <c r="R18" s="3">
         <v>30800</v>
       </c>
       <c r="S18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="T18" s="3">
         <v>25700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-28800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-21700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-25400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-22800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-23000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>17500</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F21" s="3">
         <v>19600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19900</v>
       </c>
-      <c r="G21" s="3">
-        <v>15300</v>
-      </c>
       <c r="H21" s="3">
-        <v>14600</v>
+        <v>17000</v>
       </c>
       <c r="I21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J21" s="3">
         <v>18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>5400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
         <v>16300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3400</v>
       </c>
       <c r="H24" s="3">
         <v>3400</v>
       </c>
       <c r="I24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E26" s="3">
         <v>12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E27" s="3">
         <v>12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,30 +1965,30 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-13900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E32" s="3">
         <v>28800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>21700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>25400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>22800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>23000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E33" s="3">
         <v>12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E35" s="3">
         <v>12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>95800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,53 +2547,56 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>539500</v>
+      </c>
+      <c r="E42" s="3">
         <v>497500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>736300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>578800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>166900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>64200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>98300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>125500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>141400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>64700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,20 +2857,23 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E47" s="3">
         <v>8100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2781,8 +2886,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2814,53 +2919,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E48" s="3">
         <v>47400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>49100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>50200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>71600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,50 +2981,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="3">
         <v>18000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,53 +3167,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E52" s="3">
         <v>42700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>47300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6556300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6385200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5978600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6618400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6470300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5752000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5325300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5029800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4937800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4914500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4685500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4630400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4607900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4154000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3305,21 +3436,21 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,41 +3525,44 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E59" s="3">
         <v>51100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,8 +3572,8 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6008200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5845100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5442900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6096100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5966800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5278800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4834900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4543600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4463000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4459100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4246300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4209500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4201800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3807600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>234800</v>
+      </c>
+      <c r="E72" s="3">
         <v>226900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>217200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>206000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>196000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>188200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>181100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>171700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>160400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>151100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>142200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>128200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>118800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>107200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>548100</v>
+      </c>
+      <c r="E76" s="3">
         <v>540100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>535700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>522400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>503600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>473100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>490400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>486200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>474800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>455300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>439200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>420900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>406200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>346500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E81" s="3">
         <v>12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1500</v>
       </c>
       <c r="M83" s="3">
         <v>1500</v>
       </c>
       <c r="N83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>12100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="F89" s="3">
         <v>46400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="I89" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="J89" s="3">
         <v>30700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,28 +5278,29 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-800</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
       <c r="H91" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -5091,34 +5312,37 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>76600</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>831800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-65900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-466100</v>
-      </c>
       <c r="H94" s="3">
-        <v>-228400</v>
+        <v>-694500</v>
       </c>
       <c r="I94" s="3">
+        <v>317500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-240500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-106300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-66600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-88900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>75800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-178600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>85700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,16 +5550,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2500</v>
+        <v>7500</v>
       </c>
       <c r="F96" s="3">
         <v>-2500</v>
@@ -5335,13 +5569,13 @@
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="I96" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1900</v>
       </c>
       <c r="K96" s="3">
         <v>-1900</v>
@@ -5350,7 +5584,7 @@
         <v>-1900</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>377400</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-684800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>148200</v>
       </c>
-      <c r="G100" s="3">
-        <v>791200</v>
-      </c>
       <c r="H100" s="3">
-        <v>351000</v>
+        <v>1142200</v>
       </c>
       <c r="I100" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="J100" s="3">
         <v>261100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>80900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>160800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>41800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>101600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-124300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>466200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>549900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-704300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>155100</v>
       </c>
-      <c r="G102" s="3">
-        <v>325200</v>
-      </c>
       <c r="H102" s="3">
-        <v>140200</v>
+        <v>465400</v>
       </c>
       <c r="I102" s="3">
+        <v>98500</v>
+      </c>
+      <c r="J102" s="3">
         <v>51300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-61700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>108500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>44800</v>
       </c>
       <c r="E8" s="3">
         <v>43400</v>
       </c>
       <c r="F8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="G8" s="3">
         <v>47500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>43100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>-300</v>
       </c>
       <c r="M15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N15" s="3">
         <v>-400</v>
@@ -1192,28 +1215,31 @@
         <v>-400</v>
       </c>
       <c r="P15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4300</v>
       </c>
       <c r="R17" s="3">
         <v>4300</v>
       </c>
       <c r="S17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E18" s="3">
         <v>40300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>30800</v>
       </c>
       <c r="S18" s="3">
         <v>30800</v>
       </c>
       <c r="T18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="U18" s="3">
         <v>25700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>27300</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-28800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-21700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-25400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-23600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-22800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-23000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19600</v>
       </c>
-      <c r="G21" s="3">
-        <v>19900</v>
-      </c>
       <c r="H21" s="3">
-        <v>17000</v>
+        <v>23100</v>
       </c>
       <c r="I21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J21" s="3">
         <v>8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>5400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3400</v>
       </c>
       <c r="I24" s="3">
         <v>3400</v>
       </c>
       <c r="J24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>10400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1968,30 +2029,30 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-13900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E32" s="3">
         <v>26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>28800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>21700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>25400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>23600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>22800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>23000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>10400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>10400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>681800</v>
+      </c>
+      <c r="E42" s="3">
         <v>539500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>497500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>736300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>578800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>166900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>64200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>125500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>141400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>64700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,23 +2962,26 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E47" s="3">
         <v>6300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +2994,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E48" s="3">
         <v>47900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>71600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>74000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,53 +3092,56 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E49" s="3">
         <v>17700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3287,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E52" s="3">
         <v>24300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>47300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6859800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6556300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6385200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5978600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6618400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6470300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5752000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5325300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5029800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4937800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4914500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4685500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4630400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4607900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4154000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3439,21 +3570,21 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,44 +3662,47 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E59" s="3">
         <v>51200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>68400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3575,8 +3712,8 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6303500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6008200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5845100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5442900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6096100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5966800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5278800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4834900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4543600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4463000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4459100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4246300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4209500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4201800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3807600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E72" s="3">
         <v>234800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>226900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>217200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>206000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>196000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>188200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>181100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>171700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>160400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>151100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>142200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>128200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>118800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>107200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>556300</v>
+      </c>
+      <c r="E76" s="3">
         <v>548100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>540100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>535700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>522400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>503600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>473100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>490400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>486200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>474800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>455300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>439200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>420900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>406200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>346500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>10400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>-6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
-        <v>3200</v>
-      </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="I83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J83" s="3">
         <v>-4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1500</v>
       </c>
       <c r="N83" s="3">
         <v>1500</v>
       </c>
       <c r="O83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-53600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46400</v>
       </c>
-      <c r="G89" s="3">
-        <v>1600</v>
-      </c>
       <c r="H89" s="3">
-        <v>17700</v>
+        <v>19400</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-65900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,31 +5499,32 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
         <v>800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>100</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5315,34 +5536,37 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>831800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65900</v>
       </c>
-      <c r="G94" s="3">
-        <v>5300</v>
-      </c>
       <c r="H94" s="3">
-        <v>-694500</v>
+        <v>-689200</v>
       </c>
       <c r="I94" s="3">
+        <v>-466100</v>
+      </c>
+      <c r="J94" s="3">
         <v>317500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-240500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-106300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-129600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-66600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-88900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>75800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-178600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>85700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5560,25 +5794,25 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>7500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2500</v>
       </c>
       <c r="G96" s="3">
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="I96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J96" s="3">
         <v>5800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1900</v>
       </c>
       <c r="L96" s="3">
         <v>-1900</v>
@@ -5587,7 +5821,7 @@
         <v>-1900</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-228200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-684800</v>
       </c>
-      <c r="G100" s="3">
-        <v>148200</v>
-      </c>
       <c r="H100" s="3">
-        <v>1142200</v>
+        <v>1290400</v>
       </c>
       <c r="I100" s="3">
+        <v>791200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-153100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>261100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>160800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>41800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>50400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>101600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-124300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>549900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-704300</v>
       </c>
-      <c r="G102" s="3">
-        <v>155100</v>
-      </c>
       <c r="H102" s="3">
-        <v>465400</v>
+        <v>620500</v>
       </c>
       <c r="I102" s="3">
+        <v>325200</v>
+      </c>
+      <c r="J102" s="3">
         <v>98500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-61700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-62900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,172 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E8" s="3">
         <v>44800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43400</v>
       </c>
       <c r="F8" s="3">
         <v>43400</v>
       </c>
       <c r="G8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="H8" s="3">
         <v>47500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>46700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>36200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>36000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1231,7 @@
         <v>-300</v>
       </c>
       <c r="N15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O15" s="3">
         <v>-400</v>
@@ -1218,28 +1240,31 @@
         <v>-400</v>
       </c>
       <c r="Q15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R15" s="3">
         <v>-200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4300</v>
       </c>
       <c r="S17" s="3">
         <v>4300</v>
       </c>
       <c r="T17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6200</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E18" s="3">
         <v>45700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>30800</v>
       </c>
       <c r="T18" s="3">
         <v>30800</v>
       </c>
       <c r="U18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="V18" s="3">
         <v>25700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27300</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-26300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-21700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-25400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-23600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-22800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-23000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,62 +1527,65 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>18100</v>
+      </c>
+      <c r="M21" s="3">
         <v>19600</v>
       </c>
-      <c r="H21" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>15300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>8600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>18100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>5400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E23" s="3">
         <v>19300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,64 +1729,67 @@
         <v>4900</v>
       </c>
       <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3400</v>
       </c>
       <c r="J24" s="3">
         <v>3400</v>
       </c>
       <c r="K24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2032,30 +2092,30 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-13900</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E32" s="3">
         <v>26300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>21700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>25400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>23600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>22800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>23000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E42" s="3">
         <v>681800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>539500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>497500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>736300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>578800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>166900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>114900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>64200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>98300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>125500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>70300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>83500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>141400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>64700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,26 +3066,29 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E47" s="3">
         <v>5600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11700</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,8 +3101,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3030,59 +3134,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E48" s="3">
         <v>47300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>61900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>71600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>74000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E49" s="3">
         <v>17400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E52" s="3">
         <v>24700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7079000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6859800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6556300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6385200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5978600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6618400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6470300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5752000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5325300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5029800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4937800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4914500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4685500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4630400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4607900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4154000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3573,21 +3703,21 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,47 +3798,50 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E59" s="3">
         <v>50400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>51200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>68400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3851,8 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,13 +3934,16 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6515300</v>
+      </c>
+      <c r="E66" s="3">
         <v>6303500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6008200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5845100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5442900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6096100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5966800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5278800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4834900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4543600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4463000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4459100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4246300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4209500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4201800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3807600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E72" s="3">
         <v>246700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>234800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>226900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>217200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>206000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>196000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>188200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>181100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>171700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>160400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>151100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>142200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>128200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>118800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>107200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>563700</v>
+      </c>
+      <c r="E76" s="3">
         <v>556300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>548100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>540100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>535700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>522400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>503600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>473100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>490400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>486200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>474800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>455300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>439200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>420900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>406200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>346500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,62 +5229,65 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>-6400</v>
       </c>
-      <c r="G83" s="3">
-        <v>1200</v>
-      </c>
       <c r="H83" s="3">
-        <v>6400</v>
+        <v>7600</v>
       </c>
       <c r="I83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1500</v>
       </c>
       <c r="O83" s="3">
         <v>1500</v>
       </c>
       <c r="P83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5421,62 +5637,65 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-53600</v>
       </c>
-      <c r="G89" s="3">
-        <v>46400</v>
-      </c>
       <c r="H89" s="3">
-        <v>19400</v>
+        <v>65800</v>
       </c>
       <c r="I89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-65900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38200</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,23 +5731,23 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1000</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3">
+        <v>100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5539,34 +5759,37 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5706,62 +5935,65 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>831800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-65900</v>
-      </c>
       <c r="H94" s="3">
-        <v>-689200</v>
+        <v>-755100</v>
       </c>
       <c r="I94" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-466100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>317500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-240500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-106300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-66600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-88900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>75800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-178600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>85700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5797,25 +6030,25 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>7500</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-7500</v>
+        <v>-10000</v>
       </c>
       <c r="I96" s="3">
         <v>-2500</v>
       </c>
       <c r="J96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K96" s="3">
         <v>5800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1900</v>
       </c>
       <c r="M96" s="3">
         <v>-1900</v>
@@ -5824,7 +6057,7 @@
         <v>-1900</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,62 +6301,65 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>-228200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-684800</v>
-      </c>
       <c r="H100" s="3">
-        <v>1290400</v>
+        <v>605600</v>
       </c>
       <c r="I100" s="3">
+        <v>148200</v>
+      </c>
+      <c r="J100" s="3">
         <v>791200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-153100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>261100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>160800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>41800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>50400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>101600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-124300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6186,58 +6437,61 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>549900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-704300</v>
-      </c>
       <c r="H102" s="3">
-        <v>620500</v>
+        <v>-83800</v>
       </c>
       <c r="I102" s="3">
+        <v>155100</v>
+      </c>
+      <c r="J102" s="3">
         <v>325200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>98500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>108500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-62900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E8" s="3">
         <v>48900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>44800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>43400</v>
       </c>
       <c r="G8" s="3">
         <v>43400</v>
       </c>
       <c r="H8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="I8" s="3">
         <v>47500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>47300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>46700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>40200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>36200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>36000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +1257,7 @@
         <v>-300</v>
       </c>
       <c r="O15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P15" s="3">
         <v>-400</v>
@@ -1243,28 +1266,31 @@
         <v>-400</v>
       </c>
       <c r="R15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S15" s="3">
         <v>-200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>4300</v>
       </c>
       <c r="T17" s="3">
         <v>4300</v>
       </c>
       <c r="U17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6200</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E18" s="3">
         <v>43500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>30800</v>
       </c>
       <c r="U18" s="3">
         <v>30800</v>
       </c>
       <c r="V18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="W18" s="3">
         <v>25700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>27300</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-26100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-21700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-25400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-23600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-22800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-23000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20600</v>
       </c>
       <c r="G21" s="3">
-        <v>9900</v>
+        <v>15500</v>
       </c>
       <c r="H21" s="3">
-        <v>26000</v>
+        <v>17500</v>
       </c>
       <c r="I21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J21" s="3">
         <v>19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>5400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E23" s="3">
         <v>20800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1732,64 +1778,67 @@
         <v>4900</v>
       </c>
       <c r="F24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3400</v>
       </c>
       <c r="K24" s="3">
         <v>3400</v>
       </c>
       <c r="L24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E27" s="3">
         <v>15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2800</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,30 +2156,30 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-13900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
         <v>22700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>26100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>21700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>25400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>23600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>22800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>23000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E33" s="3">
         <v>15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2800</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E35" s="3">
         <v>15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2800</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2747,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,62 +2816,65 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E42" s="3">
         <v>321900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>681800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>539500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>497500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>736300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>578800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>166900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>114900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>64200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>98300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>125500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>70300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>83500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>141400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>64700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,29 +3171,32 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E47" s="3">
         <v>6900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11700</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3104,8 +3209,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3137,62 +3242,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E48" s="3">
         <v>44900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>71600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>74000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,59 +3313,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E49" s="3">
         <v>17100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,62 +3526,65 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26700</v>
+        <v>48600</v>
       </c>
       <c r="E52" s="3">
-        <v>24700</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>24300</v>
+        <v>30800</v>
       </c>
       <c r="G52" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H52" s="3">
         <v>42700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>34300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>32500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>35000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7079000</v>
+        <v>7653300</v>
       </c>
       <c r="E54" s="3">
+        <v>7077900</v>
+      </c>
+      <c r="F54" s="3">
         <v>6859800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6556300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6385200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5978600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6618400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6470300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5752000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5325300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5029800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4937800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4914500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4685500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4630400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4607900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4154000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3706,21 +3837,21 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,50 +3935,53 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E59" s="3">
         <v>48200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>53200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>68400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3854,8 +3991,8 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,16 +4077,19 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85000</v>
+        <v>83900</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>83800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,62 +4432,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6515300</v>
+        <v>7126700</v>
       </c>
       <c r="E66" s="3">
+        <v>6514100</v>
+      </c>
+      <c r="F66" s="3">
         <v>6303500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6008200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5845100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5442900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6096100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5966800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5278800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4834900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4543600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4463000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4459100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4246300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4209500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4201800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3807600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,62 +4814,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>271700</v>
+      </c>
+      <c r="E72" s="3">
         <v>260000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>246700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>234800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>226900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>217200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>206000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>196000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>188200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>181100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>171700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>160400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>151100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>142200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>128200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>118800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>107200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,62 +5098,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526600</v>
+      </c>
+      <c r="E76" s="3">
         <v>563700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>556300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>548100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>540100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>535700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>522400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>503600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>473100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>490400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>486200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>474800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>455300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>439200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>420900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>406200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>346500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E81" s="3">
         <v>15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2800</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>-6400</v>
+        <v>1300</v>
       </c>
       <c r="H83" s="3">
-        <v>7600</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1500</v>
       </c>
       <c r="P83" s="3">
         <v>1500</v>
       </c>
       <c r="Q83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R83" s="3">
         <v>1400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>28700</v>
       </c>
       <c r="G89" s="3">
-        <v>-53600</v>
+        <v>12600</v>
       </c>
       <c r="H89" s="3">
-        <v>65800</v>
+        <v>12100</v>
       </c>
       <c r="I89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-65900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38200</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,37 +5940,38 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
       </c>
       <c r="G91" s="3">
-        <v>800</v>
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1600</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J91" s="3">
         <v>100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -5762,34 +5983,37 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-584800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-589600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-197900</v>
       </c>
       <c r="G94" s="3">
-        <v>831800</v>
+        <v>-154500</v>
       </c>
       <c r="H94" s="3">
-        <v>-755100</v>
+        <v>76600</v>
       </c>
       <c r="I94" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="J94" s="3">
         <v>5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-466100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>317500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-240500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-106300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-69500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-88900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>75800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-178600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>85700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,25 +6251,26 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="G96" s="3">
-        <v>7500</v>
+        <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-10000</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="3">
         <v>-2500</v>
@@ -6045,13 +6279,13 @@
         <v>-2500</v>
       </c>
       <c r="K96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L96" s="3">
         <v>5800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1900</v>
       </c>
       <c r="N96" s="3">
         <v>-1900</v>
@@ -6060,7 +6294,7 @@
         <v>-1900</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>611500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>212700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>312000</v>
       </c>
       <c r="G100" s="3">
-        <v>-228200</v>
+        <v>184500</v>
       </c>
       <c r="H100" s="3">
-        <v>605600</v>
+        <v>377400</v>
       </c>
       <c r="I100" s="3">
+        <v>-684800</v>
+      </c>
+      <c r="J100" s="3">
         <v>148200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>791200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-153100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>261100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>80900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>160800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>41800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>50400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>101600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-124300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-359800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>142800</v>
       </c>
       <c r="G102" s="3">
-        <v>549900</v>
+        <v>42500</v>
       </c>
       <c r="H102" s="3">
-        <v>-83800</v>
+        <v>466200</v>
       </c>
       <c r="I102" s="3">
+        <v>-704300</v>
+      </c>
+      <c r="J102" s="3">
         <v>155100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>325200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>98500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-61700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>108500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-62900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E8" s="3">
         <v>50500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>44800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43400</v>
       </c>
       <c r="H8" s="3">
         <v>43400</v>
       </c>
       <c r="I8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="J8" s="3">
         <v>47500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>47300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>43100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>40200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>36200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>34400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1283,7 @@
         <v>-300</v>
       </c>
       <c r="P15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q15" s="3">
         <v>-400</v>
@@ -1269,28 +1292,31 @@
         <v>-400</v>
       </c>
       <c r="S15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T15" s="3">
         <v>-200</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4300</v>
       </c>
       <c r="U17" s="3">
         <v>4300</v>
       </c>
       <c r="V17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6200</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E18" s="3">
         <v>46100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>30800</v>
       </c>
       <c r="V18" s="3">
         <v>30800</v>
       </c>
       <c r="W18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="X18" s="3">
         <v>25700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>27300</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-28800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-21700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-25400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-23600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-22800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>20300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F21" s="3">
         <v>22000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
-        <v>15500</v>
-      </c>
       <c r="H21" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="I21" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J21" s="3">
         <v>19600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>11200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>5400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,84 +1735,90 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E23" s="3">
         <v>19100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4300</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4900</v>
+        <v>6900</v>
       </c>
       <c r="E24" s="3">
         <v>4900</v>
@@ -1781,64 +1827,67 @@
         <v>4900</v>
       </c>
       <c r="G24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3400</v>
       </c>
       <c r="L24" s="3">
         <v>3400</v>
       </c>
       <c r="M24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E26" s="3">
         <v>14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E27" s="3">
         <v>14200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2800</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2159,30 +2220,30 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-13900</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>28800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>21700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>25400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>23600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>22800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>23000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E33" s="3">
         <v>14200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E35" s="3">
         <v>14200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E42" s="3">
         <v>365000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>321900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>681800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>539500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>497500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>736300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>578800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>166900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>98300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>125500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>70300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>141400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>64700</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,32 +3276,35 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>8100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3317,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3245,65 +3350,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E48" s="3">
         <v>45100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>58900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>61900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>68800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>71600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>74000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,62 +3424,65 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E49" s="3">
         <v>16800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,65 +3646,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E52" s="3">
         <v>48600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>42700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>47300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>34300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>35000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>37700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7943300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7653300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7077900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6859800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6556300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6385200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5978600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6618400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6470300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5752000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5325300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5029800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4937800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4914500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4685500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4630400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4607900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4154000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3840,21 +3971,21 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,53 +4072,56 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E59" s="3">
         <v>47900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>62400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>66600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3994,8 +4131,8 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,11 +4232,11 @@
         <v>83900</v>
       </c>
       <c r="E61" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F61" s="3">
         <v>83800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7445300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7126700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6514100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6303500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6008200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5845100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5442900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6096100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5966800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5278800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4834900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4543600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4463000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4459100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4246300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4209500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4201800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3807600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E72" s="3">
         <v>271700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>260000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>246700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>234800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>226900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>217200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>206000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>196000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>188200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>181100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>171700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>160400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>151100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>142200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>128200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>118800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>107200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>497900</v>
+      </c>
+      <c r="E76" s="3">
         <v>526600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>563700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>556300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>548100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>540100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>535700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>522400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>503600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>473100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>490400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>486200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>474800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>455300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>439200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>420900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>406200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>346500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E81" s="3">
         <v>14200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>-3700</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
       </c>
       <c r="G83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-4300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1500</v>
       </c>
       <c r="Q83" s="3">
         <v>1500</v>
       </c>
       <c r="R83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S83" s="3">
         <v>1400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>16800</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F89" s="3">
         <v>17100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28700</v>
       </c>
-      <c r="G89" s="3">
-        <v>12600</v>
-      </c>
       <c r="H89" s="3">
-        <v>12100</v>
+        <v>24700</v>
       </c>
       <c r="I89" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="J89" s="3">
         <v>46400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-65900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38200</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,40 +6161,41 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-800</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-900</v>
-      </c>
       <c r="H91" s="3">
-        <v>-800</v>
+        <v>-1700</v>
       </c>
       <c r="I91" s="3">
+        <v>800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -5986,34 +6207,37 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-584800</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>280600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-589600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-197900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-154500</v>
-      </c>
       <c r="H94" s="3">
-        <v>76600</v>
+        <v>-77900</v>
       </c>
       <c r="I94" s="3">
+        <v>831800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-65900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-466100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>317500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-240500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-106300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-69500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-66600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-88900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>75800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-178600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>85700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,16 +6485,17 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2500</v>
+        <v>7500</v>
       </c>
       <c r="F96" s="3">
         <v>-2500</v>
@@ -6270,10 +6504,10 @@
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2500</v>
+        <v>7500</v>
       </c>
       <c r="J96" s="3">
         <v>-2500</v>
@@ -6282,13 +6516,13 @@
         <v>-2500</v>
       </c>
       <c r="L96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M96" s="3">
         <v>5800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1900</v>
       </c>
       <c r="O96" s="3">
         <v>-1900</v>
@@ -6297,7 +6531,7 @@
         <v>-1900</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>611500</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>-475100</v>
+      </c>
+      <c r="F100" s="3">
         <v>212700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>312000</v>
       </c>
-      <c r="G100" s="3">
-        <v>184500</v>
-      </c>
       <c r="H100" s="3">
-        <v>377400</v>
+        <v>561800</v>
       </c>
       <c r="I100" s="3">
+        <v>-228200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-684800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>148200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>791200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-153100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>261100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>80900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>160800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>41800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>50400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>101600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-124300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>43600</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>-248200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-359800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>142800</v>
       </c>
-      <c r="G102" s="3">
-        <v>42500</v>
-      </c>
       <c r="H102" s="3">
-        <v>466200</v>
+        <v>508700</v>
       </c>
       <c r="I102" s="3">
+        <v>549900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-704300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>325200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>98500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-61700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>108500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-62900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E8" s="3">
         <v>58700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>44800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43400</v>
       </c>
       <c r="I8" s="3">
         <v>43400</v>
       </c>
       <c r="J8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K8" s="3">
         <v>47500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>43100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>40200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>36200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>35100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>36000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>34400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>33500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1309,7 @@
         <v>-300</v>
       </c>
       <c r="Q15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="R15" s="3">
         <v>-400</v>
@@ -1295,28 +1318,31 @@
         <v>-400</v>
       </c>
       <c r="T15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U15" s="3">
         <v>-200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>4300</v>
       </c>
       <c r="V17" s="3">
         <v>4300</v>
       </c>
       <c r="W17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6200</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E18" s="3">
         <v>53600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>30800</v>
       </c>
       <c r="W18" s="3">
         <v>30800</v>
       </c>
       <c r="X18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>25700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>27300</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-26300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-25800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-21700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-25400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-23600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>32200</v>
       </c>
       <c r="E21" s="3">
-        <v>15400</v>
+        <v>27600</v>
       </c>
       <c r="F21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G21" s="3">
         <v>22000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>18100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>19600</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="U21" s="3">
         <v>16700</v>
       </c>
-      <c r="I21" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>19600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>19900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>15300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>8600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>18100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>19600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>16500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>16000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>13400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>14200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>16700</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>5400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,90 +1778,96 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E23" s="3">
         <v>26500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4300</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4900</v>
       </c>
       <c r="F24" s="3">
         <v>4900</v>
@@ -1830,64 +1876,67 @@
         <v>4900</v>
       </c>
       <c r="H24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3400</v>
       </c>
       <c r="M24" s="3">
         <v>3400</v>
       </c>
       <c r="N24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1400</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E26" s="3">
         <v>19600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>9400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E27" s="3">
         <v>19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>9400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2800</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2223,30 +2284,30 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-13900</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E32" s="3">
         <v>27100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>26300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>25800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>21700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>25400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>23600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>22800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>23000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E33" s="3">
         <v>19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>9400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E35" s="3">
         <v>19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>9400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>95800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9800</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E42" s="3">
         <v>326500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>365000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>321900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>681800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>539500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>497500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>736300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>578800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>166900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>98300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>125500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>141400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>64700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,35 +3381,38 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>8100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3320,8 +3425,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3353,68 +3458,71 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E48" s="3">
         <v>42600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>58900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>61900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>68800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>71600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>74000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,65 +3535,68 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E49" s="3">
         <v>16600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3766,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56200</v>
+        <v>82000</v>
       </c>
       <c r="E52" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F52" s="3">
         <v>48600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>42700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>47300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>34300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>35000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>37700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>38400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7868200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7943300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7653300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7077900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6859800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6556300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6385200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5978600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6618400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6470300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5752000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5325300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5029800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4937800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4914500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4685500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4630400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4607900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4154000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3974,21 +4105,21 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,56 +4209,59 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E59" s="3">
         <v>45600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>62400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>66600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>68400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,8 +4271,8 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,23 +4363,26 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83900</v>
+        <v>77700</v>
       </c>
       <c r="E61" s="3">
         <v>83900</v>
       </c>
       <c r="F61" s="3">
+        <v>83900</v>
+      </c>
+      <c r="G61" s="3">
         <v>83800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7380600</v>
+      </c>
+      <c r="E66" s="3">
         <v>7445300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7126700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6514100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6303500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6008200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5845100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5442900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6096100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5966800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5278800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4834900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4543600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4463000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4459100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4246300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4209500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4201800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3807600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>308700</v>
+      </c>
+      <c r="E72" s="3">
         <v>288900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>271700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>260000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>246700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>234800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>226900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>217200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>206000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>196000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>188200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>181100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>171700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>160400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>151100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>142200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>128200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>118800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>107200</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>487600</v>
+      </c>
+      <c r="E76" s="3">
         <v>497900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>526600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>563700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>556300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>548100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>540100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>535700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>522400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>503600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>473100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>490400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>486200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>474800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>455300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>439200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>420900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>406200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>346500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E81" s="3">
         <v>19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>9400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,16 +5814,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>-3700</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -5634,64 +5833,67 @@
         <v>1200</v>
       </c>
       <c r="H83" s="3">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>-6400</v>
+        <v>1300</v>
       </c>
       <c r="J83" s="3">
         <v>1200</v>
       </c>
       <c r="K83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1500</v>
       </c>
       <c r="R83" s="3">
         <v>1500</v>
       </c>
       <c r="S83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T83" s="3">
         <v>1400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>26800</v>
       </c>
       <c r="E89" s="3">
-        <v>-53700</v>
+        <v>51300</v>
       </c>
       <c r="F89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G89" s="3">
         <v>17100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28700</v>
       </c>
-      <c r="H89" s="3">
-        <v>24700</v>
-      </c>
       <c r="I89" s="3">
-        <v>-53600</v>
+        <v>12600</v>
       </c>
       <c r="J89" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K89" s="3">
         <v>46400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-65900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-23100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38200</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,43 +6382,44 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>1600</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I91" s="3">
-        <v>800</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -6210,34 +6431,37 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-226800</v>
       </c>
       <c r="E94" s="3">
-        <v>280600</v>
+        <v>-398800</v>
       </c>
       <c r="F94" s="3">
+        <v>-584800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-589600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-197900</v>
       </c>
-      <c r="H94" s="3">
-        <v>-77900</v>
-      </c>
       <c r="I94" s="3">
-        <v>831800</v>
+        <v>-154500</v>
       </c>
       <c r="J94" s="3">
+        <v>76600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-65900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-466100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>317500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-240500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-106300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-66600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-88900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>75800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-178600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>85700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,16 +6719,17 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
-        <v>7500</v>
+        <v>-2500</v>
       </c>
       <c r="F96" s="3">
         <v>-2500</v>
@@ -6504,10 +6738,10 @@
         <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-5000</v>
+        <v>-2500</v>
       </c>
       <c r="I96" s="3">
-        <v>7500</v>
+        <v>-2500</v>
       </c>
       <c r="J96" s="3">
         <v>-2500</v>
@@ -6519,13 +6753,13 @@
         <v>-2500</v>
       </c>
       <c r="M96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N96" s="3">
         <v>5800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1900</v>
       </c>
       <c r="P96" s="3">
         <v>-1900</v>
@@ -6534,7 +6768,7 @@
         <v>-1900</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-66300</v>
       </c>
       <c r="E100" s="3">
-        <v>-475100</v>
+        <v>306000</v>
       </c>
       <c r="F100" s="3">
+        <v>611500</v>
+      </c>
+      <c r="G100" s="3">
         <v>212700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>312000</v>
       </c>
-      <c r="H100" s="3">
-        <v>561800</v>
-      </c>
       <c r="I100" s="3">
-        <v>-228200</v>
+        <v>184500</v>
       </c>
       <c r="J100" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-684800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>148200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>791200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-153100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>261100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>80900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>160800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>41800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>50400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>101600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-124300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-266300</v>
       </c>
       <c r="E102" s="3">
-        <v>-248200</v>
+        <v>-41500</v>
       </c>
       <c r="F102" s="3">
+        <v>43600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-359800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>142800</v>
       </c>
-      <c r="H102" s="3">
-        <v>508700</v>
-      </c>
       <c r="I102" s="3">
-        <v>549900</v>
+        <v>42500</v>
       </c>
       <c r="J102" s="3">
+        <v>466200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-704300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>325200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>98500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-61700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>108500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-62900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>AMAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E8" s="3">
         <v>70800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>44800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>43400</v>
       </c>
       <c r="J8" s="3">
         <v>43400</v>
       </c>
       <c r="K8" s="3">
+        <v>43400</v>
+      </c>
+      <c r="L8" s="3">
         <v>47500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>46500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>43100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>36200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>35100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>36000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>34400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>33500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>-300</v>
       </c>
       <c r="R15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S15" s="3">
         <v>-400</v>
@@ -1321,28 +1343,31 @@
         <v>-400</v>
       </c>
       <c r="U15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V15" s="3">
         <v>-200</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>4300</v>
       </c>
       <c r="W17" s="3">
         <v>4300</v>
       </c>
       <c r="X17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6200</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E18" s="3">
         <v>62300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>53600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>39700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>39300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>39500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31900</v>
-      </c>
-      <c r="W18" s="3">
-        <v>30800</v>
       </c>
       <c r="X18" s="3">
         <v>30800</v>
       </c>
       <c r="Y18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="Z18" s="3">
         <v>25700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>27300</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-31200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-26300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-26500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-21700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-25400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-23600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-22800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>32200</v>
       </c>
-      <c r="E21" s="3">
-        <v>27600</v>
-      </c>
       <c r="F21" s="3">
-        <v>20300</v>
+        <v>28800</v>
       </c>
       <c r="G21" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H21" s="3">
         <v>22000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20600</v>
       </c>
-      <c r="I21" s="3">
-        <v>15500</v>
-      </c>
       <c r="J21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K21" s="3">
         <v>17500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3">
         <v>5400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,96 +1820,102 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>31000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4300</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4900</v>
       </c>
       <c r="G24" s="3">
         <v>4900</v>
@@ -1879,64 +1924,67 @@
         <v>4900</v>
       </c>
       <c r="I24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3400</v>
       </c>
       <c r="N24" s="3">
         <v>3400</v>
       </c>
       <c r="O24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1400</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>22900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2800</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
         <v>22900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2800</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2287,30 +2347,30 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>3</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-13900</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E32" s="3">
         <v>31200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>26300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>26500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>21700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>25400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>23600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>22800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>23000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
         <v>22900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2800</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
         <v>22900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2800</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,71 +3085,74 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E42" s="3">
         <v>62800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>326500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>365000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>321900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>681800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>539500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>497500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>736300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>578800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>166900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>114900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>64200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>98300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>125500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>70300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>83500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>141400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>64700</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,8 +3165,11 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3307,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3384,38 +3485,41 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3532,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3461,71 +3565,74 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E48" s="3">
         <v>40500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>42600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>58900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>61900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>65100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>68800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>71600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>74000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,68 +3645,71 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>19300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>19700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3615,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,71 +3885,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E52" s="3">
         <v>82000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>35000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>37700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>38400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7843100</v>
+      </c>
+      <c r="E54" s="3">
         <v>7868200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7943300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7653300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7077900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6859800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6556300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6385200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5978600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6618400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6470300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5752000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5325300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5029800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4937800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4914500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4685500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4630400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4607900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4154000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4108,21 +4238,21 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4135,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,59 +4345,62 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E59" s="3">
         <v>43200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>68400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4274,8 +4410,8 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4289,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4366,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4375,17 +4517,17 @@
         <v>77700</v>
       </c>
       <c r="E61" s="3">
-        <v>83900</v>
+        <v>77700</v>
       </c>
       <c r="F61" s="3">
         <v>83900</v>
       </c>
       <c r="G61" s="3">
+        <v>83900</v>
+      </c>
+      <c r="H61" s="3">
         <v>83800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7334300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7380600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7445300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7126700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6514100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6303500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6008200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5845100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5442900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6096100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5966800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5278800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4834900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4543600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4463000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4459100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4246300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4209500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4201800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3807600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,71 +5335,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>330300</v>
+      </c>
+      <c r="E72" s="3">
         <v>308700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>288900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>271700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>260000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>246700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>234800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>226900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>217200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>206000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>196000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>188200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>181100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>171700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>160400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>151100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>142200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>128200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>118800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>107200</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5242,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E76" s="3">
         <v>487600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>497900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>526600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>563700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>556300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>548100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>540100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>535700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>522400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>503600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>473100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>490400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>486200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>474800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>455300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>439200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>420900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>406200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>346500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5550,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
         <v>22900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2800</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="G83" s="3">
-        <v>1200</v>
+        <v>-3700</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
       </c>
       <c r="I83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
       </c>
       <c r="L83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-4300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1500</v>
       </c>
       <c r="S83" s="3">
         <v>1500</v>
       </c>
       <c r="T83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U83" s="3">
         <v>1400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>26800</v>
       </c>
-      <c r="E89" s="3">
-        <v>51300</v>
-      </c>
       <c r="F89" s="3">
-        <v>16800</v>
+        <v>68100</v>
       </c>
       <c r="G89" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="H89" s="3">
         <v>17100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28700</v>
       </c>
-      <c r="I89" s="3">
-        <v>12600</v>
-      </c>
       <c r="J89" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K89" s="3">
         <v>12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-65900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-23100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38200</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6410,19 +6630,19 @@
         <v>-800</v>
       </c>
       <c r="K91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -6434,34 +6654,37 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-226800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-398800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-584800</v>
+        <v>-983600</v>
       </c>
       <c r="G94" s="3">
+        <v>280600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-589600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-197900</v>
       </c>
-      <c r="I94" s="3">
-        <v>-154500</v>
-      </c>
       <c r="J94" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K94" s="3">
         <v>76600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-466100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>317500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-240500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-106300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-69500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-129600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-66600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-88900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>75800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-178600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>85700</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,22 +6952,23 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-2500</v>
-      </c>
       <c r="F96" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>7500</v>
       </c>
       <c r="H96" s="3">
         <v>-2500</v>
@@ -6744,7 +6977,7 @@
         <v>-2500</v>
       </c>
       <c r="J96" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="K96" s="3">
         <v>-2500</v>
@@ -6756,13 +6989,13 @@
         <v>-2500</v>
       </c>
       <c r="N96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O96" s="3">
         <v>5800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1900</v>
       </c>
       <c r="Q96" s="3">
         <v>-1900</v>
@@ -6771,7 +7004,7 @@
         <v>-1900</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -6797,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>-66300</v>
       </c>
-      <c r="E100" s="3">
-        <v>306000</v>
-      </c>
       <c r="F100" s="3">
-        <v>611500</v>
+        <v>917500</v>
       </c>
       <c r="G100" s="3">
+        <v>-475100</v>
+      </c>
+      <c r="H100" s="3">
         <v>212700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>312000</v>
       </c>
-      <c r="I100" s="3">
-        <v>184500</v>
-      </c>
       <c r="J100" s="3">
+        <v>561800</v>
+      </c>
+      <c r="K100" s="3">
         <v>377400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-684800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>148200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>791200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-153100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>261100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>80900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>160800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>41800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>50400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>101600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-124300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-266300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-41500</v>
-      </c>
       <c r="F102" s="3">
-        <v>43600</v>
+        <v>2100</v>
       </c>
       <c r="G102" s="3">
+        <v>-248200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-359800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>142800</v>
       </c>
-      <c r="I102" s="3">
-        <v>42500</v>
-      </c>
       <c r="J102" s="3">
+        <v>508700</v>
+      </c>
+      <c r="K102" s="3">
         <v>466200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-704300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>325200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>98500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>108500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-62900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMAL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,213 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>84900</v>
+      </c>
+      <c r="F8" s="3">
         <v>78500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>70800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>58700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>50500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>48900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>44800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>43400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>43400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>47500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>47300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>47100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>48600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>46700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>46500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>45800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>44500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>43100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>40200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>36200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>35100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>36000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>34400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>33500</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +950,14 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1036,14 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,16 +1326,22 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E15" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F15" s="3">
         <v>-300</v>
@@ -1337,37 +1383,43 @@
         <v>-300</v>
       </c>
       <c r="S15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U15" s="3">
         <v>-400</v>
       </c>
       <c r="V15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X15" s="3">
         <v>-200</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>6800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>8700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>6200</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>62900</v>
+        <v>59000</v>
       </c>
       <c r="E18" s="3">
         <v>62300</v>
       </c>
       <c r="F18" s="3">
+        <v>62900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>62300</v>
+      </c>
+      <c r="H18" s="3">
         <v>53600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>46100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>43500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>45700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>40300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>45100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>39000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>42200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>39400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>39100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>42200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>42300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>39700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>38600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>39400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>39300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>39500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>31900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>30800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>30800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>25700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>27300</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1649,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-31300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-31200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-27100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-22700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-26300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-28800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-25400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-25600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-26100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-24200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-24600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-24100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-27500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-26500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-24000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-21700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-25400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-23600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-22800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-23000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>30600</v>
       </c>
       <c r="E21" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>32700</v>
+      </c>
+      <c r="G21" s="3">
         <v>32200</v>
       </c>
-      <c r="F21" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>15400</v>
-      </c>
       <c r="H21" s="3">
+        <v>27600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J21" s="3">
         <v>22000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>17500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>19600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>19900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>15300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>18100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>19600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>16500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>16000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>13400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>14200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>16700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>11200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>6900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>8200</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="3">
         <v>5400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1903,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F23" s="3">
         <v>31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>26500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>19100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>20800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>14200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>16300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>18400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>16700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>18100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>15100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>14600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>11900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>12700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>10200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>7100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>4300</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4900</v>
       </c>
       <c r="I24" s="3">
         <v>4900</v>
       </c>
       <c r="J24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-4100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3900</v>
-      </c>
-      <c r="W24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X24" s="3">
-        <v>-4900</v>
       </c>
       <c r="Y24" s="3">
         <v>2500</v>
       </c>
       <c r="Z24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>1400</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F26" s="3">
         <v>24800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>22900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>14200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>14400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>10400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>13200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>11200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>10800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>16000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>9400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>7700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>10300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>4600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>2800</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F27" s="3">
         <v>24800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>22900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>14200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>14400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>10400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>13200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>11200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>10800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>16000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>9400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>7700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>10300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>4600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>2800</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2350,41 +2472,47 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2677,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F32" s="3">
         <v>31300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>31200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>27100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>22700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>26300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>28800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>25400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>25600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>26100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>25800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>24200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>24600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>24100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>27500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>26500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>24000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>21700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>25400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>23600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>22800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>23000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F33" s="3">
         <v>24800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>22900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>14200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>13200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>9400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>11600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>7700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>4600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>2800</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F35" s="3">
         <v>24800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>22900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>14200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>13200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>9400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>11600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>7700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>4600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>2800</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,77 +3180,79 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>95800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>7600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>7000</v>
       </c>
       <c r="R41" s="3">
         <v>7600</v>
       </c>
       <c r="S41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U41" s="3">
         <v>6700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>10500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>16800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>20700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9800</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3088,77 +3262,83 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>58400</v>
+        <v>65500</v>
       </c>
       <c r="E42" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>88000</v>
+      </c>
+      <c r="G42" s="3">
         <v>62800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>326500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>365000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>321900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>681800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>539500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>497500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>31000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>736300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>578800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>166900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>114900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>64200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>98300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>125500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>70300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>83500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>141400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>64700</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +3348,14 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3434,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3606,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,44 +3692,50 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F47" s="3">
         <v>8300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>7700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>6900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>5600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>11700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,11 +3745,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3568,77 +3778,83 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F48" s="3">
         <v>38100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>40500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>42600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>45100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>47300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>47900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>47400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>49100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>50200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>58900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>61900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>65100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>68800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>71600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>74000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>21700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>22600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>23400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>21600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,74 +3864,80 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F49" s="3">
         <v>16000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>16300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>16600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>18000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>18300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>18600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>19000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>19300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>19700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>20000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>20400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>20700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>21000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>21400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>23000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,77 +4122,83 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62500</v>
+        <v>65900</v>
       </c>
       <c r="E52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>70500</v>
+      </c>
+      <c r="G52" s="3">
         <v>82000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>61900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>48600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>30000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>30800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>32600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>42700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>47300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>62900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>34300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>37400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>32500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>33300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>35000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>39700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>37700</v>
       </c>
       <c r="V52" s="3">
         <v>39700</v>
       </c>
       <c r="W52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="X52" s="3">
+        <v>39700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>38400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,77 +4294,83 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7792800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7836500</v>
+      </c>
+      <c r="F54" s="3">
         <v>7843100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7868200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7943300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7653300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7077900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6859800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6556300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6385200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5978600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6618400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6470300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5752000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5325300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5029800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4937800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4914500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4685500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4630400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4607900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4154000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4380,14 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4241,24 +4503,24 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4530,14 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,76 +4616,82 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F59" s="3">
         <v>40800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>43200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>45600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>47900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>48200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>50400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>53200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>54900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>56800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>60800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>62400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>64500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>66600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>68400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4428,8 +4702,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,32 +4788,38 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>73700</v>
+      </c>
+      <c r="F61" s="3">
         <v>77700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>77700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>83900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>83900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>83800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,77 +5218,83 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7264300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7317400</v>
+      </c>
+      <c r="F66" s="3">
         <v>7334300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7380600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7445300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7126700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6514100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6303500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6008200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5845100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5442900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6096100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5966800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5278800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4834900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4543600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4463000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4459100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4246300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4209500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4201800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3807600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4988,8 +5304,14 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,77 +5680,83 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>330700</v>
+      </c>
+      <c r="F72" s="3">
         <v>330300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>308700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>288900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>271700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>260000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>246700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>234800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>226900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>217200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>206000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>196000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>188200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>181100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>171700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>160400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>151100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>142200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>128200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>118800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>107200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,8 +5766,14 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,77 +6024,83 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>528500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>519000</v>
+      </c>
+      <c r="F76" s="3">
         <v>508800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>487600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>497900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>526600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>563700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>556300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>548100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>540100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>535700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>522400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>503600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>473100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>490400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>486200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>474800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>455300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>439200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>420900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>406200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>346500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5738,8 +6110,14 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F81" s="3">
         <v>24800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>22900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>14200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>13200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>9400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>11600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>7700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>4600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>2800</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,22 +6409,24 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-3700</v>
       </c>
       <c r="H83" s="3">
         <v>1200</v>
@@ -6037,64 +6435,70 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K83" s="3">
         <v>1200</v>
       </c>
       <c r="L83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>-4300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1400</v>
       </c>
       <c r="S83" s="3">
         <v>1500</v>
       </c>
       <c r="T83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U83" s="3">
         <v>1500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W83" s="3">
         <v>1400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>27300</v>
       </c>
       <c r="E89" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>52500</v>
+      </c>
+      <c r="G89" s="3">
         <v>26800</v>
       </c>
-      <c r="F89" s="3">
-        <v>68100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-53700</v>
-      </c>
       <c r="H89" s="3">
+        <v>51300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J89" s="3">
         <v>17100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>28700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>46400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-65900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>30700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-9200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>41800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>20100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-23100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>34800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>14100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>15800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>38200</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,43 +7054,43 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
@@ -6657,34 +7099,40 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-30200</v>
       </c>
       <c r="E94" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-226800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-983600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>280600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-398800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-584800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-589600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-197900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-77900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>76600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-65900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-466100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>317500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-240500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-106300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-69500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-129600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-66600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-88900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>75800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-178600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>85700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,22 +7419,24 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
         <v>-3100</v>
       </c>
       <c r="F96" s="3">
-        <v>-5000</v>
+        <v>-3200</v>
       </c>
       <c r="G96" s="3">
-        <v>7500</v>
+        <v>-3100</v>
       </c>
       <c r="H96" s="3">
         <v>-2500</v>
@@ -6977,13 +7445,13 @@
         <v>-2500</v>
       </c>
       <c r="J96" s="3">
-        <v>-5000</v>
+        <v>-2500</v>
       </c>
       <c r="K96" s="3">
         <v>-2500</v>
       </c>
       <c r="L96" s="3">
-        <v>-2500</v>
+        <v>-5000</v>
       </c>
       <c r="M96" s="3">
         <v>-2500</v>
@@ -6992,25 +7460,25 @@
         <v>-2500</v>
       </c>
       <c r="O96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q96" s="3">
         <v>5800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1900</v>
       </c>
       <c r="S96" s="3">
         <v>-1900</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7759,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-62200</v>
       </c>
       <c r="E100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-66300</v>
       </c>
-      <c r="F100" s="3">
-        <v>917500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-475100</v>
-      </c>
       <c r="H100" s="3">
+        <v>306000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>611500</v>
+      </c>
+      <c r="J100" s="3">
         <v>212700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>312000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>561800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>377400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-684800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>148200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>791200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-153100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>261100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>80900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>160800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>41800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>50400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>101600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-124300</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7931,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-65200</v>
       </c>
       <c r="E102" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-266300</v>
       </c>
-      <c r="F102" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-248200</v>
-      </c>
       <c r="H102" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>43600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-359800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>142800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>508700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>466200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-704300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>155100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>325200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>98500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-34600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-26300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>51300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-19500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-61700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>108500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-62900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
